--- a/results/Homeopathy_excluded/mod3.lrgenBYhealth.eff.COMB.xlsx
+++ b/results/Homeopathy_excluded/mod3.lrgenBYhealth.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0264867006389065</v>
+        <v>-0.0264867978090022</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0221287671309942</v>
+        <v>0.022128694017465</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0698582872379288</v>
+        <v>-0.0698582411081406</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0168848859601159</v>
+        <v>0.0168846454901363</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.19693521478693</v>
+        <v>-1.19694356061399</v>
       </c>
       <c r="H2" t="n">
-        <v>0.231331807126606</v>
+        <v>0.231328553929104</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.00408447605281953</v>
+        <v>-0.00408407996703875</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0164113946151737</v>
+        <v>0.0164113289343345</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0362502184346345</v>
+        <v>-0.0362496936167745</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0280812663289954</v>
+        <v>0.028081533682697</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.248880497276149</v>
+        <v>-0.248857358436972</v>
       </c>
       <c r="H3" t="n">
-        <v>0.803453221636021</v>
+        <v>0.803471120787906</v>
       </c>
     </row>
   </sheetData>
